--- a/300/10_d(023)/analysis_10.xlsx
+++ b/300/10_d(023)/analysis_10.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SSTek\Desktop\LianChia\misson\300\10\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SSTek\Desktop\LianChia\misson\300\10_d(023)\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B909D12-CB66-4505-9C8A-E0D765A10EA6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76F0FBC0-3A8F-4175-8122-EF16BA7813D6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5496" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="6300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -453,7 +453,7 @@
   <dimension ref="A1:L5"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="K5" sqref="K5"/>
+      <selection activeCell="L5" sqref="L5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
@@ -615,7 +615,7 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
@@ -653,7 +653,7 @@
         <v>3</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
